--- a/Horigan-Field-Summer2023_.xlsx
+++ b/Horigan-Field-Summer2023_.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiahorigan/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiahorigan/Documents/GitHub/mada-bat-telemetry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDBB191-DC06-5442-9AE9-E6CBE5F62591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25757B42-601B-B146-812F-55C1EC571DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{24DDFEF5-BFD9-114A-92D4-24D8A9D18927}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="74">
   <si>
     <t>JULY</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Travel</t>
   </si>
   <si>
-    <t>Ankarana - 2 GPS solar argos Pteropus</t>
-  </si>
-  <si>
     <t>configure devices &amp; pack field gear</t>
   </si>
   <si>
@@ -252,7 +249,16 @@
     <t>visit to download data (optional)</t>
   </si>
   <si>
-    <t>2 GPS VHF each subpop x 4 subpops Pteropus</t>
+    <t>Angavokely</t>
+  </si>
+  <si>
+    <t>2 GPS UHF solar each subpop x 3 subpops Pteropus</t>
+  </si>
+  <si>
+    <t>2 GPS solar argos Pteropus, 2 GPS battery argos Eidolon</t>
+  </si>
+  <si>
+    <t>2 GPS Argos battery Eidolon</t>
   </si>
 </sst>
 </file>
@@ -943,7 +949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1248,6 +1254,9 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1567,16 +1576,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F737F0F-F4DF-4044-A7C2-B78D0D5023E3}">
-  <dimension ref="A2:BX38"/>
+  <dimension ref="A2:BX39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="AU31" sqref="AU31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="63.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="4.5" style="1" customWidth="1"/>
     <col min="6" max="14" width="4.5" style="1" bestFit="1" customWidth="1"/>
@@ -2041,7 +2050,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="69"/>
       <c r="D7" s="17"/>
@@ -2055,7 +2064,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="15"/>
       <c r="H8" s="38"/>
@@ -2063,10 +2072,10 @@
     </row>
     <row r="9" spans="1:76" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="15"/>
       <c r="I9" s="23"/>
@@ -2078,7 +2087,7 @@
     </row>
     <row r="10" spans="1:76" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="65" t="s">
         <v>71</v>
@@ -2093,100 +2102,106 @@
       <c r="T10" s="24"/>
       <c r="U10" s="24"/>
       <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="25"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="125"/>
+      <c r="Z10" s="125"/>
       <c r="BX10" s="44"/>
     </row>
-    <row r="11" spans="1:76" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:76" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="125"/>
+      <c r="P11" s="125"/>
+      <c r="Q11" s="125"/>
+      <c r="R11" s="125"/>
+      <c r="S11" s="125"/>
+      <c r="T11" s="125"/>
+      <c r="U11" s="125"/>
+      <c r="V11" s="125"/>
+      <c r="W11" s="124"/>
+      <c r="X11" s="124"/>
+      <c r="Y11" s="124"/>
+      <c r="Z11" s="124"/>
+      <c r="BX11" s="44"/>
+    </row>
+    <row r="12" spans="1:76" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B12" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="N11" s="12"/>
-      <c r="AA11" s="38"/>
-      <c r="BX11" s="44"/>
-    </row>
-    <row r="12" spans="1:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="C12" s="15"/>
+      <c r="N12" s="12"/>
+      <c r="AA12" s="38"/>
+      <c r="BX12" s="44"/>
+    </row>
+    <row r="13" spans="1:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B13" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="W12" s="11"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="22"/>
-      <c r="BX12" s="44"/>
-    </row>
-    <row r="13" spans="1:76" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+      <c r="C13" s="15"/>
+      <c r="W13" s="11"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="22"/>
+      <c r="BX13" s="44"/>
+    </row>
+    <row r="14" spans="1:76" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B14" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="36"/>
-      <c r="AG13" s="37"/>
-      <c r="BX13" s="44"/>
-    </row>
-    <row r="14" spans="1:76" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="C14" s="15"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="37"/>
+      <c r="BX14" s="44"/>
+    </row>
+    <row r="15" spans="1:76" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="K14" s="13"/>
-      <c r="N14" s="11"/>
-      <c r="AH14" s="27"/>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="28"/>
-      <c r="AK14" s="28"/>
-      <c r="AL14" s="28"/>
-      <c r="AM14" s="28"/>
-      <c r="AN14" s="28"/>
-      <c r="AO14" s="28"/>
-      <c r="AP14" s="28"/>
-      <c r="AQ14" s="29"/>
-      <c r="BX14" s="44"/>
-    </row>
-    <row r="15" spans="1:76" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+      <c r="B15" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="K15" s="13"/>
+      <c r="N15" s="11"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="28"/>
+      <c r="AN15" s="28"/>
+      <c r="AO15" s="28"/>
+      <c r="AP15" s="28"/>
+      <c r="AQ15" s="29"/>
+      <c r="BX15" s="44"/>
+    </row>
+    <row r="16" spans="1:76" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B16" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="AR15" s="35"/>
-      <c r="AS15" s="37"/>
-      <c r="BX15" s="44"/>
-    </row>
-    <row r="16" spans="1:76" ht="26" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="65" t="s">
-        <v>21</v>
-      </c>
       <c r="C16" s="15"/>
-      <c r="AT16" s="32"/>
-      <c r="AU16" s="33"/>
-      <c r="AV16" s="33"/>
-      <c r="AW16" s="33"/>
-      <c r="AX16" s="33"/>
-      <c r="AY16" s="33"/>
-      <c r="AZ16" s="34"/>
+      <c r="AR16" s="35"/>
+      <c r="AS16" s="37"/>
       <c r="BX16" s="44"/>
     </row>
     <row r="17" spans="1:76" ht="26" x14ac:dyDescent="0.3">
@@ -2194,196 +2209,209 @@
         <v>9</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C17" s="15"/>
-      <c r="BA17" s="32"/>
-      <c r="BB17" s="33"/>
-      <c r="BC17" s="33"/>
-      <c r="BD17" s="33"/>
-      <c r="BE17" s="33"/>
-      <c r="BF17" s="33"/>
-      <c r="BG17" s="34"/>
+      <c r="AT17" s="32"/>
+      <c r="AU17" s="33"/>
+      <c r="AV17" s="33"/>
+      <c r="AW17" s="33"/>
+      <c r="AX17" s="33"/>
+      <c r="AY17" s="33"/>
+      <c r="AZ17" s="34"/>
       <c r="BX17" s="44"/>
     </row>
     <row r="18" spans="1:76" ht="26" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="BA18" s="32"/>
+      <c r="BB18" s="33"/>
+      <c r="BC18" s="33"/>
+      <c r="BD18" s="33"/>
+      <c r="BE18" s="33"/>
+      <c r="BF18" s="33"/>
+      <c r="BG18" s="34"/>
+      <c r="BX18" s="44"/>
+    </row>
+    <row r="19" spans="1:76" ht="26" x14ac:dyDescent="0.3">
+      <c r="A19" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B19" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="BH18" s="35"/>
-      <c r="BI18" s="36"/>
-      <c r="BJ18" s="37"/>
-      <c r="BX18" s="44"/>
-    </row>
-    <row r="19" spans="1:76" ht="26" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="C19" s="15"/>
+      <c r="BH19" s="35"/>
+      <c r="BI19" s="36"/>
+      <c r="BJ19" s="37"/>
+      <c r="BX19" s="44"/>
+    </row>
+    <row r="20" spans="1:76" ht="26" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B20" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="BK20" s="20"/>
+      <c r="BL20" s="21"/>
+      <c r="BM20" s="22"/>
+      <c r="BX20" s="44"/>
+    </row>
+    <row r="21" spans="1:76" ht="26" x14ac:dyDescent="0.3">
+      <c r="A21" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="BK19" s="20"/>
-      <c r="BL19" s="21"/>
-      <c r="BM19" s="22"/>
-      <c r="BX19" s="44"/>
-    </row>
-    <row r="20" spans="1:76" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
+      <c r="C21" s="15"/>
+      <c r="BN21" s="38"/>
+      <c r="BX21" s="44"/>
+    </row>
+    <row r="22" spans="1:76" ht="26" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="BO22" s="23"/>
+      <c r="BP22" s="24"/>
+      <c r="BQ22" s="24"/>
+      <c r="BR22" s="25"/>
+      <c r="BX22" s="44"/>
+    </row>
+    <row r="23" spans="1:76" ht="26" x14ac:dyDescent="0.3">
+      <c r="A23" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B23" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="BS23" s="38"/>
+      <c r="BX23" s="44"/>
+    </row>
+    <row r="24" spans="1:76" ht="26" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="BN20" s="38"/>
-      <c r="BX20" s="44"/>
-    </row>
-    <row r="21" spans="1:76" ht="26" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="BO21" s="23"/>
-      <c r="BP21" s="24"/>
-      <c r="BQ21" s="24"/>
-      <c r="BR21" s="25"/>
-      <c r="BX21" s="44"/>
-    </row>
-    <row r="22" spans="1:76" ht="26" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
+      <c r="C24" s="15"/>
+      <c r="BT24" s="20"/>
+      <c r="BU24" s="21"/>
+      <c r="BV24" s="22"/>
+      <c r="BX24" s="44"/>
+    </row>
+    <row r="25" spans="1:76" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="BS22" s="38"/>
-      <c r="BX22" s="44"/>
-    </row>
-    <row r="23" spans="1:76" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="BT23" s="20"/>
-      <c r="BU23" s="21"/>
-      <c r="BV23" s="22"/>
-      <c r="BX23" s="44"/>
-    </row>
-    <row r="24" spans="1:76" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="45"/>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="45"/>
-      <c r="AB24" s="45"/>
-      <c r="AC24" s="45"/>
-      <c r="AD24" s="45"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="45"/>
-      <c r="AG24" s="45"/>
-      <c r="AH24" s="45"/>
-      <c r="AI24" s="45"/>
-      <c r="AJ24" s="45"/>
-      <c r="AK24" s="45"/>
-      <c r="AL24" s="45"/>
-      <c r="AM24" s="45"/>
-      <c r="AN24" s="45"/>
-      <c r="AO24" s="45"/>
-      <c r="AP24" s="45"/>
-      <c r="AQ24" s="45"/>
-      <c r="AR24" s="45"/>
-      <c r="AS24" s="45"/>
-      <c r="AT24" s="45"/>
-      <c r="AU24" s="45"/>
-      <c r="AV24" s="45"/>
-      <c r="AW24" s="45"/>
-      <c r="AX24" s="45"/>
-      <c r="AY24" s="45"/>
-      <c r="AZ24" s="45"/>
-      <c r="BA24" s="45"/>
-      <c r="BB24" s="45"/>
-      <c r="BC24" s="45"/>
-      <c r="BD24" s="45"/>
-      <c r="BE24" s="45"/>
-      <c r="BF24" s="45"/>
-      <c r="BG24" s="45"/>
-      <c r="BH24" s="45"/>
-      <c r="BI24" s="45"/>
-      <c r="BJ24" s="45"/>
-      <c r="BK24" s="45"/>
-      <c r="BL24" s="45"/>
-      <c r="BM24" s="45"/>
-      <c r="BN24" s="45"/>
-      <c r="BO24" s="45"/>
-      <c r="BP24" s="45"/>
-      <c r="BQ24" s="45"/>
-      <c r="BR24" s="45"/>
-      <c r="BS24" s="45"/>
-      <c r="BT24" s="45"/>
-      <c r="BU24" s="45"/>
-      <c r="BV24" s="45"/>
-      <c r="BW24" s="46"/>
-      <c r="BX24" s="47"/>
-    </row>
-    <row r="25" spans="1:76" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="39"/>
-      <c r="B25" s="14"/>
-    </row>
-    <row r="26" spans="1:76" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
+      <c r="B25" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="70"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="45"/>
+      <c r="AD25" s="45"/>
+      <c r="AE25" s="45"/>
+      <c r="AF25" s="45"/>
+      <c r="AG25" s="45"/>
+      <c r="AH25" s="45"/>
+      <c r="AI25" s="45"/>
+      <c r="AJ25" s="45"/>
+      <c r="AK25" s="45"/>
+      <c r="AL25" s="45"/>
+      <c r="AM25" s="45"/>
+      <c r="AN25" s="45"/>
+      <c r="AO25" s="45"/>
+      <c r="AP25" s="45"/>
+      <c r="AQ25" s="45"/>
+      <c r="AR25" s="45"/>
+      <c r="AS25" s="45"/>
+      <c r="AT25" s="45"/>
+      <c r="AU25" s="45"/>
+      <c r="AV25" s="45"/>
+      <c r="AW25" s="45"/>
+      <c r="AX25" s="45"/>
+      <c r="AY25" s="45"/>
+      <c r="AZ25" s="45"/>
+      <c r="BA25" s="45"/>
+      <c r="BB25" s="45"/>
+      <c r="BC25" s="45"/>
+      <c r="BD25" s="45"/>
+      <c r="BE25" s="45"/>
+      <c r="BF25" s="45"/>
+      <c r="BG25" s="45"/>
+      <c r="BH25" s="45"/>
+      <c r="BI25" s="45"/>
+      <c r="BJ25" s="45"/>
+      <c r="BK25" s="45"/>
+      <c r="BL25" s="45"/>
+      <c r="BM25" s="45"/>
+      <c r="BN25" s="45"/>
+      <c r="BO25" s="45"/>
+      <c r="BP25" s="45"/>
+      <c r="BQ25" s="45"/>
+      <c r="BR25" s="45"/>
+      <c r="BS25" s="45"/>
+      <c r="BT25" s="45"/>
+      <c r="BU25" s="45"/>
+      <c r="BV25" s="45"/>
+      <c r="BW25" s="46"/>
+      <c r="BX25" s="47"/>
+    </row>
+    <row r="26" spans="1:76" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="39"/>
       <c r="B26" s="14"/>
     </row>
     <row r="27" spans="1:76" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27" s="14"/>
     </row>
-    <row r="28" spans="1:76" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="49"/>
+    <row r="28" spans="1:76" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="31"/>
       <c r="B28" s="14"/>
     </row>
-    <row r="29" spans="1:76" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
+    <row r="29" spans="1:76" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="49"/>
       <c r="B29" s="14"/>
     </row>
-    <row r="30" spans="1:76" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:76" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="14"/>
     </row>
@@ -2391,12 +2419,12 @@
       <c r="A31" s="31"/>
       <c r="B31" s="14"/>
     </row>
-    <row r="32" spans="1:76" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="40"/>
+    <row r="32" spans="1:76" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
       <c r="B32" s="14"/>
     </row>
-    <row r="33" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
+    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="40"/>
       <c r="B33" s="14"/>
     </row>
     <row r="34" spans="1:2" ht="21" x14ac:dyDescent="0.25">
@@ -2418,6 +2446,10 @@
     <row r="38" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
       <c r="B38" s="14"/>
+    </row>
+    <row r="39" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="31"/>
+      <c r="B39" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2457,7 +2489,7 @@
     <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="79"/>
       <c r="D2" s="79"/>
@@ -2466,17 +2498,17 @@
       <c r="G2" s="79"/>
       <c r="H2" s="80"/>
       <c r="K2" s="122" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L2" s="123"/>
       <c r="M2" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N2" s="53">
         <v>7600</v>
       </c>
       <c r="O2" s="55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P2" s="54">
         <f>N2-O8</f>
@@ -2485,25 +2517,25 @@
     </row>
     <row r="3" spans="2:16" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="71" t="s">
+      <c r="G3" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="72" t="s">
-        <v>27</v>
-      </c>
       <c r="H3" s="82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" s="101"/>
       <c r="L3" s="102"/>
@@ -2514,13 +2546,13 @@
     </row>
     <row r="4" spans="2:16" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="74">
         <v>1275</v>
@@ -2533,25 +2565,25 @@
         <v>1275</v>
       </c>
       <c r="H4" s="84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" s="57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P4" s="90"/>
     </row>
     <row r="5" spans="2:16" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="73" t="s">
-        <v>49</v>
-      </c>
       <c r="D5" s="73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="74">
         <v>1900</v>
@@ -2564,10 +2596,10 @@
         <v>11400</v>
       </c>
       <c r="H5" s="84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" s="83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L5" s="58">
         <v>2200</v>
@@ -2576,13 +2608,13 @@
     </row>
     <row r="6" spans="2:16" ht="19" x14ac:dyDescent="0.25">
       <c r="B6" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>55</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>56</v>
       </c>
       <c r="E6" s="75">
         <v>2300</v>
@@ -2595,10 +2627,10 @@
         <v>4600</v>
       </c>
       <c r="H6" s="86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6" s="85" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L6" s="51">
         <f>D14</f>
@@ -2608,13 +2640,13 @@
     </row>
     <row r="7" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="75">
         <v>1275</v>
@@ -2627,10 +2659,10 @@
         <v>8925</v>
       </c>
       <c r="H7" s="87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7" s="85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L7" s="51">
         <v>500</v>
@@ -2639,10 +2671,10 @@
     </row>
     <row r="8" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="75">
@@ -2656,16 +2688,16 @@
         <v>1830</v>
       </c>
       <c r="H8" s="87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8" s="85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L8" s="51">
         <v>400</v>
       </c>
       <c r="N8" s="107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O8" s="108">
         <f>SUM(L5:L14)</f>
@@ -2675,10 +2707,10 @@
     </row>
     <row r="9" spans="2:16" ht="19" x14ac:dyDescent="0.25">
       <c r="B9" s="85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="75">
@@ -2692,10 +2724,10 @@
         <v>444</v>
       </c>
       <c r="H9" s="87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9" s="85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L9" s="51">
         <v>300</v>
@@ -2704,10 +2736,10 @@
     </row>
     <row r="10" spans="2:16" ht="19" x14ac:dyDescent="0.25">
       <c r="B10" s="85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="75">
@@ -2721,14 +2753,14 @@
         <v>290</v>
       </c>
       <c r="H10" s="88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10" s="99"/>
       <c r="P10" s="90"/>
     </row>
     <row r="11" spans="2:16" ht="19" x14ac:dyDescent="0.25">
       <c r="B11" s="85" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -2743,7 +2775,7 @@
         <v>180</v>
       </c>
       <c r="H11" s="89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11" s="99"/>
       <c r="P11" s="90"/>
@@ -2759,7 +2791,7 @@
     <row r="13" spans="2:16" ht="19" x14ac:dyDescent="0.25">
       <c r="B13" s="85"/>
       <c r="C13" s="60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="61">
         <f>G5+G6+G7</f>
@@ -2772,7 +2804,7 @@
     <row r="14" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="85"/>
       <c r="C14" s="62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="63">
         <f>G8+G9+G10+G11+G4</f>
@@ -2789,7 +2821,7 @@
     <row r="15" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="91"/>
       <c r="C15" s="92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="109">
         <f>D13+D14</f>
@@ -2817,7 +2849,7 @@
     </row>
     <row r="18" spans="2:16" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="79"/>
@@ -2826,17 +2858,17 @@
       <c r="G18" s="79"/>
       <c r="H18" s="80"/>
       <c r="K18" s="122" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L18" s="123"/>
       <c r="M18" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N18" s="53">
         <v>7600</v>
       </c>
       <c r="O18" s="55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P18" s="54">
         <f>N18-O24</f>
@@ -2845,25 +2877,25 @@
     </row>
     <row r="19" spans="2:16" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="71" t="s">
+      <c r="G19" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="72" t="s">
-        <v>27</v>
-      </c>
       <c r="H19" s="82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" s="101"/>
       <c r="L19" s="102"/>
@@ -2874,13 +2906,13 @@
     </row>
     <row r="20" spans="2:16" ht="19" x14ac:dyDescent="0.25">
       <c r="B20" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="73" t="s">
-        <v>49</v>
-      </c>
       <c r="D20" s="73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="74">
         <v>1900</v>
@@ -2893,25 +2925,25 @@
         <v>11400</v>
       </c>
       <c r="H20" s="84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K20" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L20" s="57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P20" s="90"/>
     </row>
     <row r="21" spans="2:16" ht="19" x14ac:dyDescent="0.25">
       <c r="B21" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="31" t="s">
         <v>55</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>56</v>
       </c>
       <c r="E21" s="75">
         <v>2300</v>
@@ -2924,10 +2956,10 @@
         <v>4600</v>
       </c>
       <c r="H21" s="86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K21" s="83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L21" s="58">
         <v>2200</v>
@@ -2936,10 +2968,10 @@
     </row>
     <row r="22" spans="2:16" ht="19" x14ac:dyDescent="0.25">
       <c r="B22" s="85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="31"/>
       <c r="E22" s="75">
@@ -2953,10 +2985,10 @@
         <v>9800</v>
       </c>
       <c r="H22" s="87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22" s="85" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L22" s="51">
         <f>D29</f>
@@ -2966,10 +2998,10 @@
     </row>
     <row r="23" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="75">
@@ -2983,10 +3015,10 @@
         <v>290</v>
       </c>
       <c r="H23" s="87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23" s="85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L23" s="51">
         <v>500</v>
@@ -2995,10 +3027,10 @@
     </row>
     <row r="24" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="31"/>
       <c r="E24" s="75">
@@ -3012,16 +3044,16 @@
         <v>990</v>
       </c>
       <c r="H24" s="87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24" s="85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L24" s="51">
         <v>400</v>
       </c>
       <c r="N24" s="107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O24" s="108">
         <f>SUM(L21:L30)</f>
@@ -3031,10 +3063,10 @@
     </row>
     <row r="25" spans="2:16" ht="19" x14ac:dyDescent="0.25">
       <c r="B25" s="85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="31"/>
       <c r="E25" s="75">
@@ -3048,10 +3080,10 @@
         <v>180</v>
       </c>
       <c r="H25" s="88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25" s="85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L25" s="51">
         <v>300</v>
@@ -3060,10 +3092,10 @@
     </row>
     <row r="26" spans="2:16" ht="19" x14ac:dyDescent="0.25">
       <c r="B26" s="85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="75">
@@ -3077,7 +3109,7 @@
         <v>1400</v>
       </c>
       <c r="H26" s="89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K26" s="99"/>
       <c r="P26" s="90"/>
@@ -3093,7 +3125,7 @@
     <row r="28" spans="2:16" ht="19" x14ac:dyDescent="0.25">
       <c r="B28" s="85"/>
       <c r="C28" s="60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="61">
         <f>G20+G21+G22</f>
@@ -3106,7 +3138,7 @@
     <row r="29" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="85"/>
       <c r="C29" s="62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="63">
         <f>G23+G24+G25+G26</f>
@@ -3119,7 +3151,7 @@
     <row r="30" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="95"/>
       <c r="C30" s="93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="109">
         <f>D28+D29</f>
@@ -3140,7 +3172,7 @@
     <row r="33" spans="1:16" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33"/>
       <c r="B33" s="77" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="79"/>
@@ -3149,17 +3181,17 @@
       <c r="G33" s="79"/>
       <c r="H33" s="80"/>
       <c r="K33" s="122" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L33" s="123"/>
       <c r="M33" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N33" s="53">
         <v>7600</v>
       </c>
       <c r="O33" s="55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P33" s="54">
         <f>N33-O39</f>
@@ -3169,25 +3201,25 @@
     <row r="34" spans="1:16" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34"/>
       <c r="B34" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="78" t="s">
+      <c r="G34" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="78" t="s">
-        <v>27</v>
-      </c>
       <c r="H34" s="57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K34" s="101"/>
       <c r="L34" s="102"/>
@@ -3199,13 +3231,13 @@
     <row r="35" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35" s="83" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" s="73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E35" s="74">
         <v>4200</v>
@@ -3218,26 +3250,26 @@
         <v>25200</v>
       </c>
       <c r="H35" s="96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K35" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L35" s="57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P35" s="90"/>
     </row>
     <row r="36" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36" s="85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36" s="75">
         <v>1275</v>
@@ -3250,10 +3282,10 @@
         <v>8925</v>
       </c>
       <c r="H36" s="89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K36" s="83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L36" s="58">
         <v>2200</v>
@@ -3263,13 +3295,13 @@
     <row r="37" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37" s="85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E37" s="75">
         <v>1830</v>
@@ -3282,10 +3314,10 @@
         <v>1830</v>
       </c>
       <c r="H37" s="89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K37" s="85" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L37" s="51">
         <f>D44</f>
@@ -3296,13 +3328,13 @@
     <row r="38" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="B38" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="31" t="s">
         <v>34</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>35</v>
       </c>
       <c r="E38" s="75">
         <v>444</v>
@@ -3315,10 +3347,10 @@
         <v>444</v>
       </c>
       <c r="H38" s="89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K38" s="85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L38" s="51">
         <v>500</v>
@@ -3328,13 +3360,13 @@
     <row r="39" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="31" t="s">
-        <v>49</v>
-      </c>
       <c r="D39" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E39" s="75">
         <v>1900</v>
@@ -3347,16 +3379,16 @@
         <v>3800</v>
       </c>
       <c r="H39" s="89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K39" s="85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L39" s="51">
         <v>400</v>
       </c>
       <c r="N39" s="107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O39" s="108">
         <f>SUM(L36:L45)</f>
@@ -3367,7 +3399,7 @@
     <row r="40" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40" s="97" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" s="76"/>
       <c r="D40" s="76"/>
@@ -3382,10 +3414,10 @@
         <v>180</v>
       </c>
       <c r="H40" s="98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K40" s="85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L40" s="51">
         <v>300</v>
@@ -3395,10 +3427,10 @@
     <row r="41" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41" s="85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D41" s="31"/>
       <c r="E41" s="75">
@@ -3412,7 +3444,7 @@
         <v>1275</v>
       </c>
       <c r="H41" s="90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K41" s="99"/>
       <c r="P41" s="90"/>
@@ -3430,7 +3462,7 @@
       <c r="A43"/>
       <c r="B43" s="85"/>
       <c r="C43" s="60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D43" s="61">
         <f>G35+G36+G39</f>
@@ -3444,7 +3476,7 @@
       <c r="A44"/>
       <c r="B44" s="85"/>
       <c r="C44" s="62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D44" s="63">
         <f>G37+G38+G40+G41</f>
